--- a/DDF/Phase2.1/TY_05/TestData_04D.xlsx
+++ b/DDF/Phase2.1/TY_05/TestData_04D.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -46,6 +47,27 @@
   </si>
   <si>
     <t>PreTicket Print Preview</t>
+  </si>
+  <si>
+    <t>StockProposal</t>
+  </si>
+  <si>
+    <t>SP_TC_26</t>
+  </si>
+  <si>
+    <t>It will sync immediately. Do you want to continue?</t>
+  </si>
+  <si>
+    <t>SP_TC_30</t>
+  </si>
+  <si>
+    <t>Stock Proposal</t>
+  </si>
+  <si>
+    <t>SP_TC_31</t>
+  </si>
+  <si>
+    <t>Saved Successfully.</t>
   </si>
 </sst>
 </file>
@@ -363,16 +385,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -415,7 +438,48 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>